--- a/meta/3.2.1.xlsx
+++ b/meta/3.2.1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nkerimalieva\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD57726-F953-4416-B6B4-3C60D22D002B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.2.1. " sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Ссылки на НПА и методологию: http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/metadata/files/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/. Статистические публикации НСК: ежемесячный доклад «Социально-экономическое положение КР», статистические сборники «Демографический ежегодник КР», «Социальные тенденции КР», «Женщины и мужчины КР», "Уровень жизни населения КР",«Здоровье населения и здравоохранение в КР» на официальном сайте НСК КР: http://www.stat.kg/ru/publications/</t>
   </si>
@@ -163,90 +164,12 @@
   </si>
   <si>
     <t>1. Информация об индикаторе</t>
-  </si>
-  <si>
-    <t>1. Indicator information</t>
-  </si>
-  <si>
-    <t>Goal:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target: </t>
-  </si>
-  <si>
-    <t>Indicator:</t>
-  </si>
-  <si>
-    <t>2. Data reporter</t>
-  </si>
-  <si>
-    <t>Organization:</t>
-  </si>
-  <si>
-    <t>Contact person(s)/Focal point:</t>
-  </si>
-  <si>
-    <t>Contact person’s email:</t>
-  </si>
-  <si>
-    <t>Contact person’s phone:</t>
-  </si>
-  <si>
-    <t>Organization website (if available):</t>
-  </si>
-  <si>
-    <t>3. Definitions and concepts</t>
-  </si>
-  <si>
-    <t>Definition:</t>
-  </si>
-  <si>
-    <t>Concepts:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rationale and interpretation: </t>
-  </si>
-  <si>
-    <t>4. Data sources and collection methods</t>
-  </si>
-  <si>
-    <t>Data sources:</t>
-  </si>
-  <si>
-    <t>Data collection methods:</t>
-  </si>
-  <si>
-    <t>5. Method of computation and other methodological considerations</t>
-  </si>
-  <si>
-    <t>Method of computation:</t>
-  </si>
-  <si>
-    <t>Comment and limitations:</t>
-  </si>
-  <si>
-    <t>Quality assurance:</t>
-  </si>
-  <si>
-    <t>6. Data availability and disaggregation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data availability and gaps: </t>
-  </si>
-  <si>
-    <t>Disaggregation:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. Comparability with international data/standards </t>
-  </si>
-  <si>
-    <t>8. References and documentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -433,14 +356,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -717,311 +636,230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="61.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.83984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.15625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:2" ht="98.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:2" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:2" ht="275.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:2" ht="154.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:2" ht="164.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="8" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="205.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="9" t="s">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6"/>
+      <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5" t="s">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="6"/>
+      <c r="B28" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G65" s="4"/>
-      <c r="L65" s="3"/>
+    <row r="65" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F65" s="4"/>
+      <c r="K65" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
